--- a/src/main/resources/template/excel/template_room_semester.xlsx
+++ b/src/main/resources/template/excel/template_room_semester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\dkt-admin\src\main\resources\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69241795-CFD2-4C6F-9B7D-C2FE69342049}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16918D6A-C23B-4F6C-B772-5343C6AE6AB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5412" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,9 +187,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,7 +514,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,15 +530,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -586,18 +583,17 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F5" s="10"/>
+      <c r="F5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
